--- a/samples/hough/hough_test_image_grayscale_accumulator_16x16_view.xlsx
+++ b/samples/hough/hough_test_image_grayscale_accumulator_16x16_view.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\samples\hough\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2067902F-03CD-4497-BE0A-2A1A3756C5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96BF32F0-8465-4C73-84B5-36CED515AF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A05DAFD9-C46A-4297-9EAE-DF5FDFD317ED}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{B516DFA6-AEE1-4032-BC5C-4A48315F37D1}"/>
   </bookViews>
   <sheets>
     <sheet name="hough_test_image_grayscale_accu" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>rho_inc</t>
-  </si>
-  <si>
-    <t>theta_inc</t>
-  </si>
-  <si>
-    <t>nrhos</t>
-  </si>
-  <si>
-    <t>nthetas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>min_x</t>
   </si>
@@ -46,13 +34,40 @@
     <t>max_y</t>
   </si>
   <si>
+    <t>nrhos</t>
+  </si>
+  <si>
+    <t>min_rho</t>
+  </si>
+  <si>
+    <t>max_rho</t>
+  </si>
+  <si>
+    <t>rho_inc</t>
+  </si>
+  <si>
+    <t>rho_range</t>
+  </si>
+  <si>
+    <t>nthetas</t>
+  </si>
+  <si>
+    <t>min_theta</t>
+  </si>
+  <si>
+    <t>max_theta</t>
+  </si>
+  <si>
+    <t>theta_inc</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
     <t>pixel_threshold</t>
   </si>
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t>max</t>
   </si>
 </sst>
 </file>
@@ -195,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,14 +390,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -497,6 +506,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -542,9 +580,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,325 +959,452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA34A79-8150-40E1-9CA3-FC23654233D2}">
-  <dimension ref="A1:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277D6F3E-7DAA-4268-8D27-0077B857C89A}">
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.203347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-3.5</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2">
+        <v>30</v>
+      </c>
+      <c r="O4" s="3">
+        <v>35</v>
+      </c>
+      <c r="P4" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>45</v>
+      </c>
+      <c r="R4" s="3">
+        <v>50</v>
+      </c>
+      <c r="S4" s="3">
+        <v>55</v>
+      </c>
+      <c r="T4" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-2.08</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-0.45</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-1.87</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1.67</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.83</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-1.47</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-1.26</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1.06</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-0.86</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="C12">
-        <v>-2.1</v>
-      </c>
-      <c r="D12">
-        <v>-1.9</v>
-      </c>
-      <c r="E12">
-        <v>-1.7</v>
-      </c>
-      <c r="F12">
-        <v>-1.5</v>
-      </c>
-      <c r="G12">
-        <v>-1.3</v>
-      </c>
-      <c r="H12">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="I12">
-        <v>-0.9</v>
-      </c>
-      <c r="J12">
-        <v>-0.7</v>
-      </c>
-      <c r="K12">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>40</v>
+      <c r="M14" s="1">
+        <v>-0.45</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>45</v>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>50</v>
-      </c>
       <c r="B17">
-        <v>0</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-2.08</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>-1.87</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>-1.67</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>-1.47</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>-1.26</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>-1.06</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>-0.86</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-0.65</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1246,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1255,24 +1422,24 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1281,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1290,38 +1457,85 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>45</v>
+      </c>
       <c r="B21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>-2.2999999999999998</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1330,21 +1544,30 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>-2.1</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1356,21 +1579,30 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>-1.9</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1379,200 +1611,27 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>-1.7</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>-1.5</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>6</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>-1.3</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>-0.9</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>-0.7</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>-0.5</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
     </row>
